--- a/data/MarketDemand/2022.03 - PMP Avg Annual Openings by State.xlsx
+++ b/data/MarketDemand/2022.03 - PMP Avg Annual Openings by State.xlsx
@@ -1,15 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goconfluent.sharepoint.com/sites/UPADVISORS/EIM Analytics/04 - WebApps/NeedsAssessmentTool/data/MarketDemand/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_215406B2DEC4505766C2B0EA29C56CA7BA333B37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C6EF28D-A62C-437A-B0DB-AF69C14F7819}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="29565" yWindow="465" windowWidth="25185" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$255</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -409,8 +430,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +494,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -519,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,9 +580,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,6 +632,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -760,14 +825,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -831,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -863,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -895,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -927,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -959,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -991,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1439,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1599,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1631,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1759,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1791,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1919,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1951,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2015,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2047,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2111,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2207,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2239,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2271,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2303,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2335,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2367,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2399,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2431,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2463,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2495,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2527,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -2559,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2591,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2623,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2655,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2687,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2719,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2751,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -2783,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2815,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -2847,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -2879,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -2911,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -2943,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -2975,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -3007,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -3039,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -3071,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -3103,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -3167,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -3231,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -3263,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -3295,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -3327,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -3359,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3391,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3423,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -3455,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3487,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -3519,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -3551,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -3583,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -3615,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -3647,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -3679,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -3711,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -3743,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -3775,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -3807,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -3839,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3871,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -3903,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -3935,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -3967,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -3999,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -4031,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -4063,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -4095,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -4127,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -4159,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -4191,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -4223,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -4255,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4287,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -4319,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -4351,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -4383,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -4415,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -4447,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -4479,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -4511,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -4543,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4575,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -4607,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -4639,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -4671,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -4703,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -4735,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -4767,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -4799,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -4831,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -4863,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>35</v>
       </c>
@@ -4895,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -4927,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>35</v>
       </c>
@@ -4959,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -4991,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -5023,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -5087,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -5119,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -5183,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -5215,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -5247,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -5279,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -5311,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -5343,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -5375,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>38</v>
       </c>
@@ -5407,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>38</v>
       </c>
@@ -5439,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -5471,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -5503,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -5535,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -5567,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -5599,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -5631,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -5663,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>40</v>
       </c>
@@ -5695,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -5727,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -5759,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -5791,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>41</v>
       </c>
@@ -5823,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>41</v>
       </c>
@@ -5855,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>41</v>
       </c>
@@ -5887,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>41</v>
       </c>
@@ -5919,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -5951,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -5983,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -6015,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -6047,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -6079,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -6111,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>43</v>
       </c>
@@ -6143,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -6175,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>43</v>
       </c>
@@ -6207,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -6239,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>44</v>
       </c>
@@ -6271,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>44</v>
       </c>
@@ -6303,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>44</v>
       </c>
@@ -6335,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>44</v>
       </c>
@@ -6367,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>44</v>
       </c>
@@ -6399,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -6431,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -6463,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -6495,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -6527,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -6559,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>46</v>
       </c>
@@ -6591,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -6623,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>46</v>
       </c>
@@ -6655,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>46</v>
       </c>
@@ -6687,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>46</v>
       </c>
@@ -6719,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>47</v>
       </c>
@@ -6751,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>47</v>
       </c>
@@ -6783,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>47</v>
       </c>
@@ -6815,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>47</v>
       </c>
@@ -6847,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>47</v>
       </c>
@@ -6879,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -6911,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>48</v>
       </c>
@@ -6943,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>48</v>
       </c>
@@ -6975,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>48</v>
       </c>
@@ -7007,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>48</v>
       </c>
@@ -7039,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -7071,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -7103,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -7135,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -7167,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>50</v>
       </c>
@@ -7199,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>50</v>
       </c>
@@ -7231,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>50</v>
       </c>
@@ -7263,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>50</v>
       </c>
@@ -7295,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>50</v>
       </c>
@@ -7327,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -7359,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -7391,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -7423,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -7455,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>51</v>
       </c>
@@ -7487,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -7519,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>52</v>
       </c>
@@ -7551,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>52</v>
       </c>
@@ -7583,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>52</v>
       </c>
@@ -7615,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>52</v>
       </c>
@@ -7647,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -7679,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>53</v>
       </c>
@@ -7711,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -7743,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -7775,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -7807,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>54</v>
       </c>
@@ -7839,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>54</v>
       </c>
@@ -7871,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>54</v>
       </c>
@@ -7903,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>54</v>
       </c>
@@ -7935,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -7967,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -7999,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -8031,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -8063,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -8095,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -8127,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>56</v>
       </c>
@@ -8159,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>56</v>
       </c>
@@ -8191,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>56</v>
       </c>
@@ -8223,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>56</v>
       </c>
@@ -8255,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>56</v>
       </c>
@@ -8287,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>57</v>
       </c>
@@ -8319,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>57</v>
       </c>
@@ -8351,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -8383,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>57</v>
       </c>
@@ -8415,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>57</v>
       </c>
@@ -8447,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>58</v>
       </c>
@@ -8479,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -8511,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>58</v>
       </c>
@@ -8543,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>58</v>
       </c>
@@ -8575,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>58</v>
       </c>
@@ -8607,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>59</v>
       </c>
@@ -8639,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>59</v>
       </c>
@@ -8671,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -8703,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>59</v>
       </c>
@@ -8735,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>59</v>
       </c>
@@ -8767,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -8799,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -8831,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>60</v>
       </c>
@@ -8863,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>60</v>
       </c>
@@ -8895,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>60</v>
       </c>
@@ -8928,11 +9003,33 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J255" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042DAD6BC5FC9164E91F408CCD297BFFB" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a109d7a5736997f3eeeaecbbb1853f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5d01bc9-28ae-4456-8ca2-aef537193fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="832f38faa40e8bc86a9c7aa8ceef29b4" ns2:_="">
     <xsd:import namespace="f5d01bc9-28ae-4456-8ca2-aef537193fc0"/>
@@ -9110,29 +9207,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787B4051-74A1-4893-B79A-4FCBFF13E3BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B90344-69D7-4139-A607-AEB177FD5D59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866CF8A8-7656-4F4A-B35F-83949B228A17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866CF8A8-7656-4F4A-B35F-83949B228A17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B90344-69D7-4139-A607-AEB177FD5D59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787B4051-74A1-4893-B79A-4FCBFF13E3BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f5d01bc9-28ae-4456-8ca2-aef537193fc0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>